--- a/input_tool/edu_table_helper_EN_AFG.xlsx
+++ b/input_tool/edu_table_helper_EN_AFG.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{140A1488-850A-4685-AC13-972AD17E1C6C}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F275CA0E-E6CE-47BE-BCCC-3476F013CDE2}"/>
   <bookViews>
-    <workbookView xWindow="-19290" yWindow="-3720" windowWidth="19380" windowHeight="11460" activeTab="1" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="7" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
-    <sheet name="out_of_school" sheetId="3" r:id="rId2"/>
-    <sheet name="ece" sheetId="4" r:id="rId3"/>
-    <sheet name="level1" sheetId="5" r:id="rId4"/>
-    <sheet name="level2" sheetId="6" r:id="rId5"/>
-    <sheet name="level3" sheetId="7" r:id="rId6"/>
-    <sheet name="level4" sheetId="8" r:id="rId7"/>
+    <sheet name="overage" sheetId="9" r:id="rId2"/>
+    <sheet name="out_of_school" sheetId="3" r:id="rId3"/>
+    <sheet name="ece" sheetId="4" r:id="rId4"/>
+    <sheet name="level1" sheetId="5" r:id="rId5"/>
+    <sheet name="level2" sheetId="6" r:id="rId6"/>
+    <sheet name="level3" sheetId="7" r:id="rId7"/>
+    <sheet name="level4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="45">
   <si>
     <t>tab</t>
   </si>
@@ -152,12 +153,6 @@
     <t>% of school-aged children of upper secondary school age currently attending  upper secondary school or higher</t>
   </si>
   <si>
-    <t>Female / woman</t>
-  </si>
-  <si>
-    <t>Male / man</t>
-  </si>
-  <si>
     <t>There is a ban preventing child from attending</t>
   </si>
   <si>
@@ -168,6 +163,21 @@
   </si>
   <si>
     <t>No school in the area or school is too far</t>
+  </si>
+  <si>
+    <t>overage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of overage learners </t>
+  </si>
+  <si>
+    <t>Overage learners</t>
+  </si>
+  <si>
+    <t>Girls</t>
+  </si>
+  <si>
+    <t>Boys</t>
   </si>
 </sst>
 </file>
@@ -193,7 +203,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +222,12 @@
         <bgColor rgb="FFFFEFC1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFFEFC1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -225,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -237,6 +253,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -576,7 +595,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -636,7 +655,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>18</v>
@@ -644,7 +663,7 @@
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>19</v>
@@ -656,11 +675,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="6" max="7" width="27" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -711,28 +812,28 @@
         <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G5" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.75">
@@ -745,12 +846,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -808,7 +909,7 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>24</v>
@@ -816,7 +917,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -824,12 +925,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A578C6AC-945F-43C7-88F6-0991BAC5AA47}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -885,15 +986,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -901,12 +1000,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234059E-FF89-4231-AEDD-537A0FD72374}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -962,15 +1061,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -978,12 +1075,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF67C88-2243-4200-BD46-1196A6B1AE0E}">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1039,13 +1136,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1053,12 +1150,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25073DEA-EBA1-4BC2-8E1E-EDCA81A49738}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1114,13 +1211,13 @@
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/input_tool/edu_table_helper_EN_AFG.xlsx
+++ b/input_tool/edu_table_helper_EN_AFG.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F275CA0E-E6CE-47BE-BCCC-3476F013CDE2}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAE4611-4DF7-45CC-B36A-12C1A937B7B9}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="7" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
-    <sheet name="overage" sheetId="9" r:id="rId2"/>
+    <sheet name="overaged" sheetId="9" r:id="rId2"/>
     <sheet name="out_of_school" sheetId="3" r:id="rId3"/>
     <sheet name="ece" sheetId="4" r:id="rId4"/>
     <sheet name="level1" sheetId="5" r:id="rId5"/>
@@ -78,9 +78,6 @@
     <t>out_of_school</t>
   </si>
   <si>
-    <t>Non Access</t>
-  </si>
-  <si>
     <t>Barriers</t>
   </si>
   <si>
@@ -102,18 +99,12 @@
     <t>% of school-aged children whose education was disrupted due to natural hazards</t>
   </si>
   <si>
-    <t>% of school-aged children whose education was disrupted due to the school being occupied by displaced persons - Binary</t>
-  </si>
-  <si>
     <t>% of school-aged children  who did not attend school or any early childhood education program at any time during the 2023-2024 school year</t>
   </si>
   <si>
     <t>% of school-aged children of primary school age currently attending primary or higher</t>
   </si>
   <si>
-    <t>% of school-aged children attending school who are at least 2 years above the intended age for grade: primary</t>
-  </si>
-  <si>
     <t>% of children one year before primary school entry age attending early childhood education or primary school.</t>
   </si>
   <si>
@@ -135,9 +126,6 @@
     <t>% of school-aged children of intermediate school level age currently attending intermediate school level or higher</t>
   </si>
   <si>
-    <t>% of school-aged children attending school who are at least 2 years above the intended age for grade: secondary</t>
-  </si>
-  <si>
     <t>School Attendance Profile: intermediate -- secondary</t>
   </si>
   <si>
@@ -165,19 +153,31 @@
     <t>No school in the area or school is too far</t>
   </si>
   <si>
-    <t>overage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis of overage learners </t>
-  </si>
-  <si>
-    <t>Overage learners</t>
-  </si>
-  <si>
     <t>Girls</t>
   </si>
   <si>
     <t>Boys</t>
+  </si>
+  <si>
+    <t>overaged</t>
+  </si>
+  <si>
+    <t>Overaged learners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis of overaged learners </t>
+  </si>
+  <si>
+    <t>% of school-aged children attending primary school who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>% of school-aged children attending secondary school who are at least 2 years above the intended age for their grade</t>
+  </si>
+  <si>
+    <t>% of school-aged children whose education was disrupted due to the school being occupied by displaced persons</t>
+  </si>
+  <si>
+    <t>% of OoS children</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B085A-F222-4D02-94C7-458C197FFE9F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -635,7 +635,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -644,29 +644,29 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -678,8 +678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36B93C1-E6B8-4A90-A407-38EEDC988F7A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -716,10 +716,10 @@
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -728,26 +728,26 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="5"/>
     </row>
@@ -760,8 +760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -797,48 +797,48 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G5" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -898,26 +898,26 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +966,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -975,24 +975,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1041,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1050,24 +1050,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +1116,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1125,24 +1125,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1154,7 +1154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25073DEA-EBA1-4BC2-8E1E-EDCA81A49738}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -1191,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1200,24 +1200,24 @@
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
       <c r="C3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C4" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/input_tool/edu_table_helper_EN_AFG.xlsx
+++ b/input_tool/edu_table_helper_EN_AFG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann SAY\Desktop\git\EduAnalysisTool\input_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F275CA0E-E6CE-47BE-BCCC-3476F013CDE2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1CBDE2-9505-4F29-B0A0-D46ACC5CFAC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="7" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -595,19 +595,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -653,7 +653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -661,7 +661,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -679,19 +679,19 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -737,7 +737,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -745,7 +745,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -761,15 +761,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="28.86328125" customWidth="1"/>
+    <col min="1" max="7" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -815,7 +815,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -823,7 +823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -831,12 +831,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>15</v>
       </c>
@@ -851,17 +851,17 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -907,7 +907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
@@ -915,7 +915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -930,15 +930,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -984,13 +984,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -1005,15 +1005,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1059,13 +1059,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -1080,15 +1080,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1134,13 +1134,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>
@@ -1155,15 +1155,15 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C3" sqref="C3:C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1209,13 +1209,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>43</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>44</v>
       </c>

--- a/input_tool/edu_table_helper_EN_AFG.xlsx
+++ b/input_tool/edu_table_helper_EN_AFG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://acted-my.sharepoint.com/personal/martina_vit_impact-initiatives_org/Documents/MSNAEdu/EduAnalysisTool/input_tool/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yann SAY\Desktop\git\EduAnalysisTool\input_tool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{061F18F9-EC50-476C-AE2F-DD009B2D4B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CAE4611-4DF7-45CC-B36A-12C1A937B7B9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5A56DA-FC78-4F08-9960-9C3AB08C912B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" activeTab="2" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{AD85D784-B454-4039-8455-21301024D336}"/>
   </bookViews>
   <sheets>
     <sheet name="access" sheetId="1" r:id="rId1"/>
@@ -598,16 +598,16 @@
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -653,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -661,7 +661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -682,16 +682,16 @@
       <selection activeCell="G2" sqref="G2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="38.31640625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -737,7 +737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -745,7 +745,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -760,16 +760,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39444B71-EEA9-4171-A7FB-692AC9A3C4DA}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="28.86328125" customWidth="1"/>
+    <col min="1" max="7" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -792,7 +792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -815,7 +815,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -823,7 +823,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -831,12 +831,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G5" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="G6" t="s">
         <v>14</v>
       </c>
@@ -850,18 +850,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{675A8981-F8A2-408A-9A14-DF2744D820F7}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="33.6796875" customWidth="1"/>
+    <col min="6" max="6" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -884,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -907,7 +907,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
@@ -915,7 +915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -933,12 +933,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -961,7 +961,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -984,13 +984,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -1008,12 +1008,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1059,13 +1059,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -1083,12 +1083,12 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1134,13 +1134,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
@@ -1158,12 +1158,12 @@
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="28.86328125" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1209,13 +1209,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>36</v>
       </c>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>37</v>
       </c>
